--- a/biology/Histoire de la zoologie et de la botanique/Gilberto_Righi/Gilberto_Righi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gilberto_Righi/Gilberto_Righi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilberto Righi (1937-1999) était un biologiste et taxonomiste brésilien.  
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a passé une grande partie de sa carrière à l'université de São Paulo (Brésil).
 </t>
@@ -542,9 +556,11 @@
           <t>Apport scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a apporté, du milieu des années 1960 à la fin des années 1990, une contribution significative à la connaissance des vers de terre d'Amérique du Sud, notamment du Brésil et de l'Amazonie, ainsi que des Antilles. Il a ainsi publié près de 80 articles de taxonomie. Il a décrit la plus grande partie des espèces de la famille des Glossoscolecidae[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a apporté, du milieu des années 1960 à la fin des années 1990, une contribution significative à la connaissance des vers de terre d'Amérique du Sud, notamment du Brésil et de l'Amazonie, ainsi que des Antilles. Il a ainsi publié près de 80 articles de taxonomie. Il a décrit la plus grande partie des espèces de la famille des Glossoscolecidae.
 </t>
         </is>
       </c>
@@ -575,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1965-1969
-Righi, G. (1965). Ocorrência de Pheretima indica no Brasil. Ciência e Cultura 17, 225–226.
+          <t>1965-1969</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Righi, G. (1965). Ocorrência de Pheretima indica no Brasil. Ciência e Cultura 17, 225–226.
 Righi, G., Knäpper, C.U. F. (1965). O gênero Pheretima Kinberg, no Estado de Rio Grande do Sol. Revista Brasileira de Biología, Rio de Janeiro 25, 419–427.
 Righi, G. (1966). Invertebrados. Aminhoca Pheretima hawayana (Rosa, 1891). São Paulo, IBECC, pp. 83.
 Righi, G., Knäpper, C.U. F. (1966). Ciclo annual de Pheretima indica (Horst, 1893). Revista Brasileira de Biología, Rio de Janeiro 26, 341–343.
@@ -592,9 +613,43 @@
 Righi, G. (1969). A new species of Meroscolex from Suriname (Oligochaeta, Glossoscolecida). Zoologische Mededelingen 43, 313–317.
 Righi, G. (1969). On some Brazilian Glossoscolecidae. Beiträge zur Neotropischen Fauna 6, 152–162.
 Righi, G. (1969). Sobre a zoogeografia das Glossoscolecidae (Oligochaet). Ciência e Cultura 21, 460–461.
-Righi, G. (1969). Sur une espèce aberrante de Glossoscolecidae, Thamnodrilus matapi, sp. n. Pedobiologia 9, 42–45.
-1970-1974
-Righi, G. (1970). Relaçöes entre os géneros das Glossoscolecidae. Atas III Congreso Brasileiro de Zoologia, A22.
+Righi, G. (1969). Sur une espèce aberrante de Glossoscolecidae, Thamnodrilus matapi, sp. n. Pedobiologia 9, 42–45.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des travaux de Gilberto Righi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1970-1974</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Righi, G. (1970). Relaçöes entre os géneros das Glossoscolecidae. Atas III Congreso Brasileiro de Zoologia, A22.
 Righi, G. (1970). Sôbre o aparéelo excretor de Ramiellona strigosa saetosa (Oligochaeta, Acanthodrilida). Ciência e Cultura 22, 280.
 Righi, G. (1970). Sôbre o gênero Andioscolex (Oligochaeta, Glossoscolecida). Revista Brasileira de Biologia, Rio de Janeiro 30, 371–376.
 Righi, G., Caballero, M. E. S. (1970). Duas novas espécies brasileiras dos gêneros Wegeneriona e Neogaster (Oligochaeta, Octochaetida). Revista Brasileira de Biologia, Rio de Janeiro 30, 91–96.
@@ -614,9 +669,43 @@
 Righi, G. (1974 ). Notas sobre os Oligochaeta, Enchytraeidae do Brasil. Papéis Avulsos de Zoologia, São Paulo 28, 127–145.
 Righi, G. (1974). Alguns Sporozoa (Gregarinida e Haplosporid). de Oligochaeta (Naididae e Enchytraeida). brasileiros. Papéis Avulsos de Zoologia, São Paulo 28, 185–195.
 Righi, G. (1974). Marionina pituca, sp. n. (Oligochaeta, Enchytraeida). from Brazilian soil and its intestinal parasite, Buetschliella marioninae, sp. n. (Ciliata, Astomat). Zoologischer Anzeiger 192, 414–419.
-Righi, G. (1974). Notas sobre os Oligochaeta Glossoscolecidae do Brasil. Revista Brasileira de Biologia, Rio de Janeiro 34, 551–564.
-1975-1979
-Righi, G. (1975). Algumas Enchytraeidae (Oligochaet). brasileiras. Ciência e Cultura 27, 143–150.
+Righi, G. (1974). Notas sobre os Oligochaeta Glossoscolecidae do Brasil. Revista Brasileira de Biologia, Rio de Janeiro 34, 551–564.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des travaux de Gilberto Righi</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1975-1979</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Righi, G. (1975). Algumas Enchytraeidae (Oligochaet). brasileiras. Ciência e Cultura 27, 143–150.
 Righi, G. (1975). Some Oligochaeta from the Brazilian Amazonia. Studies on the Neotropical Fauna 10, 77–95.
 Righi, G., Ayres, I. (1975). Alguns Oligochaeta sul brasileiros. Revista Brasileira de Biologia, Rio de Janeiro 35, 309–316.
 Righi, G., Ljungström, P. O. (1975). Notas sobre los oligoquetos (lombrices de tierr). argentinos. Revista de la Asociación de Ciencias Naturales del Litoral 6, 1–42.
@@ -630,9 +719,43 @@
 Righi, G. (1979). Introducción al estudio de las lombrices del suelo (Oligoquetos Megadrilos). de la Provincia de Santa Fe (Argentin). Colección CLIMAX, (Asociación de Ciencias Naturales del Litoral). Sto. Tomé, Argentina No 2, 89–151.
 Righi, G. (1979). Introducción al estudio de las lombrices del suelo (Oligoquetos Megadrilos). de la Provincia de Santa Fe (Argentin). Revista de la Asociación de Ciencias Naturales del Litoral, Santo Tomé, Argentina No 10, 89–155.
 Righi, G., de Araujo Lobo, D. (1979). Nova contribuição ao gênero Glossoscolex com sinopse do grupo giganteus (Oligochaeta, Glossoscolecida). Revista Brasileira de Biologia, Rio de Janeiro 39, 947–959.
-Righi, G., Kanner, E. (1979). Marine Oligochaeta (Tubificidae and Enchytraeida). from the Caribbean Sea. Studies on the Fauna of Curaçao and other Caribbean Islands No 182. 58, 44–68.
-1980-1984
-Righi, G. (1980). Alguns Megadrile (Oligochaeta, Annelid). brasileiros. Boletim de Zoologia, Universidade de São Paulo 5, 1–18.
+Righi, G., Kanner, E. (1979). Marine Oligochaeta (Tubificidae and Enchytraeida). from the Caribbean Sea. Studies on the Fauna of Curaçao and other Caribbean Islands No 182. 58, 44–68.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des travaux de Gilberto Righi</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1980-1984</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Righi, G. (1980). Alguns Megadrile (Oligochaeta, Annelid). brasileiros. Boletim de Zoologia, Universidade de São Paulo 5, 1–18.
 Righi, G. (1980). Alguns Oligochaeta, Ocnerodrilidae e Glossoscolecidae do Brasil. Papéis Avulsos de Zoologia, São Paulo 33, 239–246.
 Righi, G. (1981). Alguns Oligochaeta cavernícolas do Equador. Papéis Avulsos de Zoologia, São Paulo 34, 235–249.
 Righi, G. (1981). Notas sobre Enchytraeidae (Oligochaet). brasileiras. Revista Brasileira de Biologia, Rio de Janeiro 41, 427–430.
@@ -649,9 +772,43 @@
 Righi, G. (1984). On a collection of Neotropical Megadrili Oligochaeta. I. Ocnerodrilidae, Acanthodrilidae, Octochaetidae, Megascolecidae. Studies on Neotropical Fauna and Environment 19, 9–31.
 Righi, G. (1984). On a collection of Neotropical Megadrili Oligochaeta. II. Glossoscolecidae, Lumbricidae. Studies on Neotropical Fauna and Environment 19, 99–120.
 Righi, G. (1984). On some earthworms (Oligochaeta, Glossoscolecida). from the Sierra Nevada de Santa Marta (Colombi). In: Van der Hammen, T., Ruiz P. M. (eds). Studies on tropical Andean Ecosystems 2. J. Cramer, Berlin, pp. 455–468.
-Righi, G. (1984). Pontoscolex (Oligochaeta, Glossoscolecida), a new evaluation. Studies on Neotropical Fauna and Environment 19, 159–177.
-1985-1989
-Righi, G. (1985). Dois novos Oligochaeta da Amazônia venezuelana. Papéis Avulsos de Zoologia, São Paulo 36, 23–30.
+Righi, G. (1984). Pontoscolex (Oligochaeta, Glossoscolecida), a new evaluation. Studies on Neotropical Fauna and Environment 19, 159–177.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des travaux de Gilberto Righi</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1985-1989</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Righi, G. (1985). Dois novos Oligochaeta da Amazônia venezuelana. Papéis Avulsos de Zoologia, São Paulo 36, 23–30.
 Righi, G. (1985). Sobre Rhinodrilus e Urobenus (Oligochaeta, Glossoscolecida). Boletim de Zoologia, Universidade de São Paulo 9, 231–257.
 Righi, G., Guerra, A.T. (1985). Alguns Oligochaeta do norte e noroeste do Brasil. Boletim de Zoologia, Universidade de São Paulo 9, 145–157.
 Righi, G. (1986). Alguns Oligochaeta, Glossoscolecidae, de Rondônia, Brasil. Boletim de Zoologia, Universidade de São Paulo 10, 283–303.
@@ -668,9 +825,43 @@
 Righi, G. (1989). Alguns Oligochaeta da Amazônia. Boletin del Museo Para. Emilio Goeldi (Zool.). 5, 3–8.
 Righi, G. (1989). Três Oligochaeta, Glossoscolecidae da Amazônia. Amazoniana 10, 393–399.
 Righi, G., García, R. H. (1989). Duas espécies de Oligochaeta da Colômbia. Revista Brasileira de Biologia, Rio de Janeiro 49, 415–420.
-Righi, G., Hamonui, V. (1989). Prístina longidentata e a taxonomia das Naididae, Oligochaeta. Revista Brasileira de Biología, Rio de Janeiro 49, 409–414.
-1990-1994
-Righi, G. (1990). Minhocas de Mato Grosso e de Rondônia. Programa Polonoroeste. Relatório de Pesquisa nº 12. SCT/PR – CNPq. Programa do Trópico Úmido 157 pp.
+Righi, G., Hamonui, V. (1989). Prístina longidentata e a taxonomia das Naididae, Oligochaeta. Revista Brasileira de Biología, Rio de Janeiro 49, 409–414.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des travaux de Gilberto Righi</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1990-1994</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Righi, G. (1990). Minhocas de Mato Grosso e de Rondônia. Programa Polonoroeste. Relatório de Pesquisa nº 12. SCT/PR – CNPq. Programa do Trópico Úmido 157 pp.
 Righi, G. (1990). Oligochaeta da Estação Ecológica de Maracá, Roraima, Brasil. Acta Amazónica 20, 391–398.
 Righi, G., Moraes, P. H. F. de (1990). Rhinodrilus pitun, sp. n. Oligochaeta, Glossoscolecidae de Pernambuco. Revista Brasileira de Biología, Rio de Janeiro 50, 519–522.
 Righi, G. (1992). Four new Peruvian earthworms. Soil Biology and Biochemistry 24, 1223–1230.
@@ -678,9 +869,43 @@
 Righi, G. (1993). Venezuelan earthworms and considerations on the genus Andiorrhinus Cognetti, 1908 (Oligochaeta, Glossoscolecida). Tropical Zoology (Special Issu). 1, 125–139.
 Reynolds, J.W., Righi, G. (1994). On some earthworms from Belize, C. A. with the description of a new species of Oligochaeta (Acanthodrilidae, Glossoscolecidae and Octochaetida). Megadrilogica 5, 97–106.
 Righi, G. (1994). On new and old-known Oligochaeta genera from Paraiba State, Brazil. Revue Suisse de Zoologie 101, 89–106.
-Righi, G., Molina, S. (1994). Terricolous Oligochaeta (Glossoscolecida). of the Venezuelan Llanos. Revue Suisse de Zoologie 101, 299–313.
-1995-1999
-Righi, G. (1995). 16, Colombian earthworms. In: Van der Hammen, T., Santos, A. G. (eds). Studies on tropical Andean Ecosystems, 4. Cramer (Borntraeger), Berlin- Stuttgart, pp. 485–607.
+Righi, G., Molina, S. (1994). Terricolous Oligochaeta (Glossoscolecida). of the Venezuelan Llanos. Revue Suisse de Zoologie 101, 299–313.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des travaux de Gilberto Righi</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1995-1999</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Righi, G. (1995). 16, Colombian earthworms. In: Van der Hammen, T., Santos, A. G. (eds). Studies on tropical Andean Ecosystems, 4. Cramer (Borntraeger), Berlin- Stuttgart, pp. 485–607.
 Righi, G. (1995). A new earthworm (Ocnerodrilidae, Oligochaet). from a Brazilian cave and considerations about Belladrilus. Revue Suisse de Zoologie 102, 361–365.
 Righi, G. (1995). Some Megadrili Oligochaeta from the Caribbean Region. Studies on the Natural History of the Caribbean Region 72, 47–53.
 Righi, G., Van der Hammen, T. (1995). 15. Distribución de especies de lombrices en las dos vertientes de la Cordillera Central (Transecto Parque Los Nevados, Colombi). In: Van der Hammen, T., Santos, A. G. (eds). Studies on tropical Andean Ecosystems,
@@ -690,9 +915,43 @@
 Righi, G. (1998). Oligoquetas. In: Machado, A. B. M., da Fonseca, G. A. B., Machado, R. B., Aguiar, L. M. de S., Lins, L.V. (eds). Livro Vermelho das espécies Ameaçadas de Extinçao da Fauna de Minas Gerais. Fundaçao Biodiversitas. Belo Horizonte, Brasil
 De Mischis, C., Righi, G. (1999). Contribución al conocimiento de la oligoquetofauna (Annelida, Oligochaet). de la Argentina. Gayana 63, 63–65.
 Righi, G., Araujo, Y. (1999). Andiorrhinus (Amazonidrilus). motto n. sp. and Rhinodrilus appuni pavoni n. subsp. (Oligochaeta, Glossoscolecida). from the Venezuelan Amazonia. Miscellània Zoológica 22, 93–100.
-Righi, G., Mischis, C. De. (1999). Belladrilus (Santomesi). auka n. sp. (Oligochaeta, Ocnerodrilida). from Argentina. Miscellània Zoológica 22, 77–80.
-2000-2002
-Righi, G., Araujo, Y. (2000). Three new species and a new records of Oligochaeta, Glossoscolecidae, from the Venezuelan Andes. Miscellània Zoológica 23, 107–120.
+Righi, G., Mischis, C. De. (1999). Belladrilus (Santomesi). auka n. sp. (Oligochaeta, Ocnerodrilida). from Argentina. Miscellània Zoológica 22, 77–80.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilberto_Righi</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des travaux de Gilberto Righi</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2000-2002</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Righi, G., Araujo, Y. (2000). Three new species and a new records of Oligochaeta, Glossoscolecidae, from the Venezuelan Andes. Miscellània Zoológica 23, 107–120.
 Righi, G., Hamonui, V. (2002). Oligochaeta, Naididae of the West Indies and adjacent regions. Papéis Avulsos de Zoologia, S. Paulo 42, 119–167.</t>
         </is>
       </c>
